--- a/sources/case/DeleteOrganizationByName.xlsx
+++ b/sources/case/DeleteOrganizationByName.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20340" windowHeight="7335"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20340" windowHeight="7335" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Base" sheetId="1" r:id="rId1"/>
@@ -83,14 +83,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>流程1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Delete_Organization_2</t>
   </si>
   <si>
-    <t>流程2</t>
+    <t>部门1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -421,7 +422,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -485,8 +486,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -515,12 +516,12 @@
         <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
         <v>16</v>
@@ -560,7 +561,7 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/sources/case/DeleteOrganizationByName.xlsx
+++ b/sources/case/DeleteOrganizationByName.xlsx
@@ -16,7 +16,7 @@
     <sheet name="Params" sheetId="2" r:id="rId2"/>
     <sheet name="Expectations" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -79,19 +79,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>b89d7d04-0f75-11e7-9aa4-00163e007053</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Delete_Organization_2</t>
   </si>
   <si>
-    <t>部门1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>部门2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>$csv{data.Tenant.microfastup.parent_organization_ID}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${origanization_1.name}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${origanization_2.name}</t>
   </si>
 </sst>
 </file>
@@ -487,14 +486,14 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="48.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
@@ -513,7 +512,7 @@
         <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
         <v>18</v>
@@ -521,10 +520,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
         <v>17</v>
-      </c>
-      <c r="B3" t="s">
-        <v>16</v>
       </c>
       <c r="C3" t="s">
         <v>19</v>
@@ -561,7 +560,7 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
